--- a/pub/Management/WBSbyArea/1.7_Security_WBS_draft.xlsx
+++ b/pub/Management/WBSbyArea/1.7_Security_WBS_draft.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="167" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="167" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="FY10_WBS" sheetId="1" r:id="rId1"/>
+    <sheet name="ActualWorkDone_FY10" sheetId="2" r:id="rId2"/>
+    <sheet name="FY11_WBS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="255">
   <si>
     <t>1.7</t>
   </si>
@@ -557,7 +557,27 @@
     <t xml:space="preserve">10.1  WLCG reacts strongly and asks every site to patch until a certain deadline or be out of the grid. We had 30+ sites in OSG who has not patched or understood the problem. WLCG and OSG asks us to work with Tier2 and Tier3s one-by-one. We run tests individually on each site, call them and walk them through the patching operation. </t>
   </si>
   <si>
-    <t xml:space="preserve">10.2  Pakiti. As a follow up to kernel root vulnerabilities, european developers design a new service that automates checking for patches. I asked Anand to check it out and see if it is useful. Tier3 coordinator and security team agree this is useful for tier3s and we should move ahead. We decide we need secure access to the Pakiti and ask Europeans to develop it. We work with the developer on one-to-one basis and he finish developing last month. We installed and use the service on another root level kernel vulnerability for Tier3s. </t>
+    <r>
+      <t xml:space="preserve">10.2  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pakiti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. As a follow up to kernel root vulnerabilities, european developers design a new service that automates checking for patches. I asked Anand to check it out and see if it is useful. Tier3 coordinator and security team agree this is useful for tier3s and we should move ahead. We decide we need secure access to the Pakiti and ask Europeans to develop it. We work with the developer on one-to-one basis and he finish developing last month. We installed and use the service on another root level kernel vulnerability for Tier3s. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">11. CA and CRL outages becomes all too common. </t>
@@ -650,9 +670,6 @@
     <t>Incident Response and Prevention</t>
   </si>
   <si>
-    <t>Barlow, Altunay, Anand</t>
-  </si>
-  <si>
     <t>1.7.1.1.1</t>
   </si>
   <si>
@@ -671,16 +688,16 @@
     <t xml:space="preserve">Perform vulnerability watch : check security bulletins, one team member each week (everyone) </t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>1.7.1.1.4</t>
   </si>
   <si>
     <t>Conduct an incident drill with VOs</t>
   </si>
   <si>
-    <t>Anand, Altunay</t>
+    <t>1.7.1.1.5</t>
+  </si>
+  <si>
+    <t>ST&amp;E controls, and review and update of Security Plan and Risk Assessment Plan</t>
   </si>
   <si>
     <t xml:space="preserve">T3 Support </t>
@@ -698,18 +715,9 @@
     <t xml:space="preserve">Continue and finalize installation and deployment of Pakiti. Help transitioning the service to GOC </t>
   </si>
   <si>
-    <t xml:space="preserve">Anand </t>
-  </si>
-  <si>
     <t>1.7.1.2.3</t>
   </si>
   <si>
-    <t>Maintain and operate the service, contact T3 admins based on their experience (Anand)</t>
-  </si>
-  <si>
-    <t>Barlow, and the Team</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Continuous Operational Work</t>
   </si>
   <si>
@@ -719,9 +727,6 @@
     <t>Prepare CA distribution packages, every two months</t>
   </si>
   <si>
-    <t>Doug</t>
-  </si>
-  <si>
     <t>1.7.1.3.2</t>
   </si>
   <si>
@@ -740,9 +745,6 @@
     <t xml:space="preserve">Participate in IGTF, send comments to JSPG </t>
   </si>
   <si>
-    <t>Doug, Altunay</t>
-  </si>
-  <si>
     <t>1.7.1.3.5</t>
   </si>
   <si>
@@ -752,46 +754,25 @@
     <t>Authentication and Identity Infrastructure</t>
   </si>
   <si>
-    <t>Altunay, Olson, Anand</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test CILogon CA in OSG infrastructure. Setup a test Shib IdP to be tested with CILogon </t>
   </si>
   <si>
-    <t>Complete OSG identity roadmap. Advertise the results of tested solutions to user community. Provide a suite of Identity services</t>
-  </si>
-  <si>
     <t>1.7.2.3</t>
   </si>
   <si>
     <t xml:space="preserve">Test feasibility of VOMS as a Identity provider </t>
   </si>
   <si>
-    <t>11/31/10</t>
-  </si>
-  <si>
     <t>1.7.2.4</t>
   </si>
   <si>
-    <t>Setup a test CA that manages certificates for the end users (combination of MyProxy CA)</t>
-  </si>
-  <si>
     <t>1.7.2.5</t>
   </si>
   <si>
-    <t>Develop and integrate the necessary tools as a result of the roadmap.</t>
-  </si>
-  <si>
-    <t>1.7.2.6</t>
-  </si>
-  <si>
     <t>Configure and Deploy OSG specific Registration Manager for RHCS 8.0 (needed for 1.4)</t>
   </si>
   <si>
-    <t>3 months</t>
-  </si>
-  <si>
-    <t>Establish notification filtering/sorting by VO</t>
+    <t>In certificate approval workflow, establish notification filtering by VO</t>
   </si>
   <si>
     <t>1.7.3</t>
@@ -803,9 +784,6 @@
     <t>Understand and discuss security needs of virtualization technologies and clouds</t>
   </si>
   <si>
-    <t xml:space="preserve">Write a roadmap on how OSG security infrastructure can be realized in a virtualized env. Auditing and deployment of Vms, access control problems. </t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -818,9 +796,6 @@
     <t xml:space="preserve">Training, Education and Documentation </t>
   </si>
   <si>
-    <t xml:space="preserve">    Prepare how-to guides for sites and users</t>
-  </si>
-  <si>
     <t xml:space="preserve">How to securely configure and install VDT (including non-security software) </t>
   </si>
   <si>
@@ -833,7 +808,37 @@
     <t>Help with completing documentation project</t>
   </si>
   <si>
-    <t>Barlow, Sfiligoi, team</t>
+    <t>Altunay, Padmanabhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmanabhan </t>
+  </si>
+  <si>
+    <t>Maintain and operate the service, contact T3 admins based on their experience (Padmanabhan)</t>
+  </si>
+  <si>
+    <t>Barlow, Padmanabhan, Sfiligoi, Olson, Altunay</t>
+  </si>
+  <si>
+    <t>Altunay, Padmanabhan, Olson, Barlow, Sfiligoi</t>
+  </si>
+  <si>
+    <t>Complete OSG identity roadmap. Advertise the recommendations from the roadmap to the user community.</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Prepare how-to guides for sites and users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barlow </t>
+  </si>
+  <si>
+    <t>Barlow, Altunay, Padmanabhan, Olson, Sfiligoi</t>
+  </si>
+  <si>
+    <t>Sfiligoi, Barlow</t>
   </si>
 </sst>
 </file>
@@ -844,7 +849,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -979,17 +984,11 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color indexed="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1297,13 +1296,13 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1336,36 +1335,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1766,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1792,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G1" s="3">
         <v>40451</v>
@@ -1818,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G2" s="3">
         <v>40451</v>
@@ -1844,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G3" s="3">
         <v>40451</v>
@@ -1870,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G4" s="3">
         <v>40451</v>
@@ -1896,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G5" s="3">
         <v>40451</v>
@@ -1922,7 +1949,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G6" s="3">
         <v>40451</v>
@@ -1948,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G7" s="3">
         <v>40451</v>
@@ -1974,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G8" s="3">
         <v>40451</v>
@@ -2000,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G9" s="3">
         <v>40451</v>
@@ -2026,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G10" s="3">
         <v>40451</v>
@@ -2052,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G11" s="3">
         <v>40451</v>
@@ -2078,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G12" s="3">
         <v>40451</v>
@@ -2104,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G13" s="3">
         <v>40451</v>
@@ -2130,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G14" s="3">
         <v>40451</v>
@@ -2156,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G15" s="3">
         <v>40451</v>
@@ -2182,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G16" s="3">
         <v>40451</v>
@@ -2208,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G17" s="3">
         <v>40451</v>
@@ -2234,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>40045.333333333336</v>
+        <v>40045.333333333299</v>
       </c>
       <c r="G18" s="3">
         <v>40117</v>
@@ -2260,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G19" s="3">
         <v>40451</v>
@@ -2286,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G20" s="3">
         <v>40238</v>
@@ -2312,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G21" s="3">
         <v>40238</v>
@@ -2338,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G22" s="3">
         <v>40451</v>
@@ -2364,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>40057.333333333336</v>
+        <v>40057.333333333299</v>
       </c>
       <c r="G23" s="3">
         <v>40451</v>
@@ -2390,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G24" s="3">
         <v>40451</v>
@@ -2416,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G25" s="3">
         <v>40451</v>
@@ -2442,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G26" s="3">
         <v>40451</v>
@@ -2468,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G27" s="3">
         <v>40451</v>
@@ -2494,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G28" s="3">
         <v>40451</v>
@@ -2520,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G29" s="3">
         <v>40451</v>
@@ -2546,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G30" s="3">
         <v>40451</v>
@@ -2572,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G31" s="3">
         <v>40451</v>
@@ -2598,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G32" s="3">
         <v>40451</v>
@@ -2624,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G33" s="3">
         <v>40451</v>
@@ -2650,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G34" s="3">
         <v>40451</v>
@@ -2676,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G35" s="3">
         <v>40451</v>
@@ -2702,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G36" s="3">
         <v>40451</v>
@@ -2728,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G37" s="3">
         <v>40451</v>
@@ -2754,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G38" s="3">
         <v>40451</v>
@@ -2780,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G39" s="3">
         <v>40451</v>
@@ -2806,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>40025.333333333336</v>
+        <v>40025.333333333299</v>
       </c>
       <c r="G40" s="3">
         <v>40118</v>
@@ -2832,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>40028.333333333336</v>
+        <v>40028.333333333299</v>
       </c>
       <c r="G41" s="3">
         <v>40178</v>
@@ -2858,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>40028.333333333336</v>
+        <v>40028.333333333299</v>
       </c>
       <c r="G42" s="3">
         <v>40178</v>
@@ -2884,7 +2911,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="3">
-        <v>40087.333333333336</v>
+        <v>40087.333333333299</v>
       </c>
       <c r="G43" s="3">
         <v>40451</v>
@@ -2910,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>40087.333333333336</v>
+        <v>40087.333333333299</v>
       </c>
       <c r="G44" s="3">
         <v>40451</v>
@@ -2936,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>40087.333333333336</v>
+        <v>40087.333333333299</v>
       </c>
       <c r="G45" s="3">
         <v>40451</v>
@@ -2962,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>40087.333333333336</v>
+        <v>40087.333333333299</v>
       </c>
       <c r="G46" s="3">
         <v>40451</v>
@@ -2988,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G47" s="3">
         <v>40451</v>
@@ -3014,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>40045.333333333336</v>
+        <v>40045.333333333299</v>
       </c>
       <c r="G48" s="3">
         <v>40106</v>
@@ -3040,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="3">
-        <v>40045.333333333336</v>
+        <v>40045.333333333299</v>
       </c>
       <c r="G49" s="3">
         <v>40178</v>
@@ -3066,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="3">
-        <v>40024.333333333336</v>
+        <v>40024.333333333299</v>
       </c>
       <c r="G50" s="3">
         <v>40451</v>
@@ -3092,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>40045.333333333336</v>
+        <v>40045.333333333299</v>
       </c>
       <c r="G51" s="3">
         <v>40106</v>
@@ -3118,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3556,535 +3583,609 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="64.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="31" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="32" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="26.85" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="19">
-        <v>40391</v>
-      </c>
-      <c r="D4" s="19">
-        <v>40785</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D4" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="22" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D5" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5">
+      <c r="A6" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="19">
-        <v>40391</v>
-      </c>
-      <c r="D5" s="19">
-        <v>40785</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D6" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5">
-      <c r="A6" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:5" ht="25.5">
+      <c r="A7" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="19">
-        <v>40391</v>
-      </c>
-      <c r="D6" s="19">
-        <v>40785</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5">
-      <c r="A7" s="23" t="s">
+      <c r="B7" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D7" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="19">
-        <v>40391</v>
-      </c>
-      <c r="D7" s="19">
-        <v>40785</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" s="30" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="23" t="s">
+      <c r="C8" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D8" s="18">
+        <v>40589</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5">
+      <c r="A9" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C9" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D9" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="E11" s="32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B12" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C12" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D12" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5">
+      <c r="A13" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="19">
-        <v>40391</v>
-      </c>
-      <c r="D10" s="19">
-        <v>40785</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B13" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="25">
+        <v>40452</v>
+      </c>
+      <c r="D13" s="25">
+        <v>40907</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38.25">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D14" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.5">
-      <c r="A11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="27">
-        <v>40452</v>
-      </c>
-      <c r="D11" s="27">
-        <v>40907</v>
-      </c>
-      <c r="E11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5">
-      <c r="A12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="19">
-        <v>40391</v>
-      </c>
-      <c r="D12" s="19">
-        <v>40785</v>
-      </c>
-      <c r="E12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D17" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D18" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D19" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D20" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D21" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5">
+      <c r="A24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="25">
+        <v>40452</v>
+      </c>
+      <c r="D24" s="25">
+        <v>40527</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.5">
+      <c r="A25" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="25">
+        <v>40452</v>
+      </c>
+      <c r="D25" s="25">
+        <v>40527</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="25">
+        <v>40452</v>
+      </c>
+      <c r="D26" s="25">
+        <v>40512</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5">
+      <c r="A27" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B27" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B28" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="25">
+        <v>40452</v>
+      </c>
+      <c r="D28" s="25">
+        <v>40543</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="24"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5">
-      <c r="A20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="27">
+    <row r="32" spans="1:5" ht="25.5">
+      <c r="B32" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="18">
+        <v>40452</v>
+      </c>
+      <c r="D32" s="18">
+        <v>40816</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="27">
+        <v>40483</v>
+      </c>
+      <c r="D37" s="27">
+        <v>40589</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="27">
+        <v>40575</v>
+      </c>
+      <c r="D38" s="27">
+        <v>40664</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="26"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="27">
         <v>40391</v>
       </c>
-      <c r="D20" s="27">
-        <v>40481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5">
-      <c r="A21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="D40" s="27">
+        <v>40786</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="25">
         <v>40391</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D41" s="25">
         <v>40786</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="E41" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.5">
+      <c r="A42" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="25">
         <v>40391</v>
       </c>
-      <c r="D22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.5">
-      <c r="A23" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="27">
-        <v>40483</v>
-      </c>
-      <c r="D23" s="27">
-        <v>40574</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="D42" s="25">
+        <v>40786</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="38.25">
+      <c r="A43" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="27">
-        <v>40421</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C43" s="25">
+        <v>40391</v>
+      </c>
+      <c r="D43" s="25">
         <v>40786</v>
       </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.5">
-      <c r="A25" s="28" t="s">
+      <c r="E43" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.5">
+      <c r="A44" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="C44" s="25">
+        <v>40391</v>
+      </c>
+      <c r="D44" s="25">
+        <v>40786</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5">
+      <c r="A45" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="28"/>
-      <c r="B26" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="27">
-        <v>40452</v>
-      </c>
-      <c r="D26" s="27">
-        <v>40543</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="C45" s="25">
+        <v>40391</v>
+      </c>
+      <c r="D45" s="25">
+        <v>40786</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>247</v>
-      </c>
-      <c r="C27" s="27">
-        <v>40421</v>
-      </c>
-      <c r="D27" s="27">
-        <v>40786</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5">
-      <c r="B28" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" ht="26.25" customHeight="1">
-      <c r="B29" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="29">
-        <v>40391</v>
-      </c>
-      <c r="D33" s="29">
-        <v>40786</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="27">
-        <v>40391</v>
-      </c>
-      <c r="D34" s="27">
-        <v>40786</v>
-      </c>
-      <c r="E34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="27">
-        <v>40391</v>
-      </c>
-      <c r="D35" s="27">
-        <v>40786</v>
-      </c>
-      <c r="E35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="38.25">
-      <c r="A36" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="27">
-        <v>40391</v>
-      </c>
-      <c r="D36" s="27">
-        <v>40786</v>
-      </c>
-      <c r="E36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="25.5">
-      <c r="A37" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="27">
-        <v>40391</v>
-      </c>
-      <c r="D37" s="27">
-        <v>40786</v>
-      </c>
-      <c r="E37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C38" s="27">
-        <v>40391</v>
-      </c>
-      <c r="D38" s="27">
-        <v>40786</v>
-      </c>
-      <c r="E38" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/pub/Management/WBSbyArea/1.7_Security_WBS_draft.xlsx
+++ b/pub/Management/WBSbyArea/1.7_Security_WBS_draft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="167" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="167" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FY10_WBS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="253">
   <si>
     <t>1.7</t>
   </si>
@@ -673,36 +673,39 @@
     <t>1.7.1.1.1</t>
   </si>
   <si>
-    <t>Exchange information with other grid security teams (Barlow)</t>
+    <t>Exchange information with other grid security teams. Participate in grid-sec, globus-sec and other email lists for possible threats, vulnerabilities</t>
   </si>
   <si>
     <t>1.7.1.1.2</t>
   </si>
   <si>
-    <t>Participate in grid-sec, globus-sec and other email lists for possible threats, vulnerabilities</t>
+    <t xml:space="preserve">Perform vulnerability watch : check security bulletins, one team member each week </t>
+  </si>
+  <si>
+    <t>Altunay, Padmanabhan, Olson, Barlow, Sfiligoi</t>
   </si>
   <si>
     <t>1.7.1.1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Perform vulnerability watch : check security bulletins, one team member each week (everyone) </t>
+    <t>Conduct an incident drill</t>
   </si>
   <si>
     <t>1.7.1.1.4</t>
   </si>
   <si>
-    <t>Conduct an incident drill with VOs</t>
-  </si>
-  <si>
-    <t>1.7.1.1.5</t>
-  </si>
-  <si>
     <t>ST&amp;E controls, and review and update of Security Plan and Risk Assessment Plan</t>
   </si>
   <si>
+    <t>Altunay, Padmanabhan</t>
+  </si>
+  <si>
     <t xml:space="preserve">T3 Support </t>
   </si>
   <si>
+    <t xml:space="preserve">Barlow </t>
+  </si>
+  <si>
     <t>1.7.1.2.1</t>
   </si>
   <si>
@@ -712,12 +715,18 @@
     <t>1.7.1.2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Continue and finalize installation and deployment of Pakiti. Help transitioning the service to GOC </t>
+    <t>Help transitioning the Pakiti service to GOC, when necessary help GOC with operational problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmanabhan </t>
   </si>
   <si>
     <t>1.7.1.2.3</t>
   </si>
   <si>
+    <t>Monitor the results from Pakiti service, contact T3 admins when necessary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Continuous Operational Work</t>
   </si>
   <si>
@@ -757,24 +766,30 @@
     <t xml:space="preserve">Test CILogon CA in OSG infrastructure. Setup a test Shib IdP to be tested with CILogon </t>
   </si>
   <si>
+    <t>Complete OSG identity roadmap. Advertise the recommendations from the roadmap to the user community.</t>
+  </si>
+  <si>
     <t>1.7.2.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Test feasibility of VOMS as a Identity provider </t>
+    <t xml:space="preserve">Test feasibility of VOMS in Shibboleth framework as a SP or as an IdP </t>
   </si>
   <si>
     <t>1.7.2.4</t>
   </si>
   <si>
+    <t>Configure and Deploy OSG specific Registration Manager for RHCS 8.0 (needed for 1.4)</t>
+  </si>
+  <si>
     <t>1.7.2.5</t>
   </si>
   <si>
-    <t>Configure and Deploy OSG specific Registration Manager for RHCS 8.0 (needed for 1.4)</t>
-  </si>
-  <si>
     <t>In certificate approval workflow, establish notification filtering by VO</t>
   </si>
   <si>
+    <t>11/31/2011</t>
+  </si>
+  <si>
     <t>1.7.3</t>
   </si>
   <si>
@@ -787,15 +802,24 @@
     <t>Software</t>
   </si>
   <si>
+    <t xml:space="preserve">    Validate the feature set in GUMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Prepare for transition to SHA-2</t>
   </si>
   <si>
-    <t xml:space="preserve">    Validate the feature set in GUMS</t>
+    <t>Olson, Padmanabhan</t>
   </si>
   <si>
     <t xml:space="preserve">Training, Education and Documentation </t>
   </si>
   <si>
+    <t>Sfiligoi, Barlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Prepare how-to guides for sites and users</t>
+  </si>
+  <si>
     <t xml:space="preserve">How to securely configure and install VDT (including non-security software) </t>
   </si>
   <si>
@@ -808,37 +832,7 @@
     <t>Help with completing documentation project</t>
   </si>
   <si>
-    <t>Altunay, Padmanabhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padmanabhan </t>
-  </si>
-  <si>
-    <t>Maintain and operate the service, contact T3 admins based on their experience (Padmanabhan)</t>
-  </si>
-  <si>
     <t>Barlow, Padmanabhan, Sfiligoi, Olson, Altunay</t>
-  </si>
-  <si>
-    <t>Altunay, Padmanabhan, Olson, Barlow, Sfiligoi</t>
-  </si>
-  <si>
-    <t>Complete OSG identity roadmap. Advertise the recommendations from the roadmap to the user community.</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Prepare how-to guides for sites and users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barlow </t>
-  </si>
-  <si>
-    <t>Barlow, Altunay, Padmanabhan, Olson, Sfiligoi</t>
-  </si>
-  <si>
-    <t>Sfiligoi, Barlow</t>
   </si>
 </sst>
 </file>
@@ -1335,9 +1329,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1352,47 +1352,39 @@
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3583,609 +3575,580 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="64.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="17" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.85" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>40452</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>40816</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" ht="38.25">
+      <c r="A5" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <v>40452</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>40816</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" s="30" customFormat="1" ht="25.5">
+      <c r="A6" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="28">
         <v>40452</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="28">
         <v>40816</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="20">
+        <v>40452</v>
+      </c>
+      <c r="D7" s="20">
+        <v>40617</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5">
+      <c r="A8" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="20">
+        <v>40452</v>
+      </c>
+      <c r="D8" s="20">
+        <v>40816</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="20">
+        <v>40452</v>
+      </c>
+      <c r="D10" s="20">
+        <v>40816</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5">
-      <c r="A7" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="18">
+    <row r="11" spans="1:5" ht="25.5">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="33">
         <v>40452</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D11" s="33">
+        <v>40907</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="20">
+        <v>40452</v>
+      </c>
+      <c r="D12" s="20">
         <v>40816</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="E12" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="20">
         <v>40452</v>
       </c>
-      <c r="D8" s="18">
-        <v>40589</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5">
-      <c r="A9" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="D14" s="20">
+        <v>40816</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="20">
         <v>40452</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D15" s="20">
         <v>40816</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="E15" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="20">
         <v>40452</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D16" s="20">
         <v>40816</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="25">
-        <v>40452</v>
-      </c>
-      <c r="D13" s="25">
-        <v>40907</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="38.25">
-      <c r="A14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="18">
-        <v>40452</v>
-      </c>
-      <c r="D14" s="18">
-        <v>40816</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="33" t="s">
+      <c r="E16" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="18">
+        <v>224</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="20">
         <v>40452</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="20">
         <v>40816</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>43</v>
+      <c r="E17" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="18">
+        <v>226</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="20">
         <v>40452</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="20">
         <v>40816</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5">
+      <c r="A21" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="33">
+        <v>40452</v>
+      </c>
+      <c r="D21" s="33">
+        <v>40527</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.5">
+      <c r="A22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="33">
+        <v>40452</v>
+      </c>
+      <c r="D22" s="33">
+        <v>40589</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="33">
+        <v>40452</v>
+      </c>
+      <c r="D23" s="33">
+        <v>40512</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="18">
-        <v>40452</v>
-      </c>
-      <c r="D19" s="18">
-        <v>40816</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="18">
-        <v>40452</v>
-      </c>
-      <c r="D20" s="18">
-        <v>40816</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="18">
-        <v>40452</v>
-      </c>
-      <c r="D21" s="18">
-        <v>40816</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25.5">
       <c r="A24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="25">
+        <v>233</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="37">
         <v>40452</v>
       </c>
-      <c r="D24" s="25">
-        <v>40527</v>
-      </c>
-      <c r="E24" s="32" t="s">
+      <c r="D24" s="37">
+        <v>40633</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="33">
+        <v>40452</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5">
+      <c r="B27" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="20">
+        <v>40452</v>
+      </c>
+      <c r="D27" s="20">
+        <v>40816</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.5">
-      <c r="A25" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="29" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="38">
+        <v>40544</v>
+      </c>
+      <c r="D29" s="38">
+        <v>40589</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="38">
+        <v>40603</v>
+      </c>
+      <c r="D30" s="38">
+        <v>40695</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="38">
+        <v>40391</v>
+      </c>
+      <c r="D31" s="38">
+        <v>40786</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="33">
+        <v>40391</v>
+      </c>
+      <c r="D32" s="33">
+        <v>40786</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.5">
+      <c r="A33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="33">
+        <v>40391</v>
+      </c>
+      <c r="D33" s="33">
+        <v>40786</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="38.25">
+      <c r="A34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C34" s="33">
+        <v>40391</v>
+      </c>
+      <c r="D34" s="33">
+        <v>40786</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25.5">
+      <c r="A35" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="33">
+        <v>40391</v>
+      </c>
+      <c r="D35" s="33">
+        <v>40786</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.5">
+      <c r="A36" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="33">
         <v>40452</v>
       </c>
-      <c r="D25" s="25">
-        <v>40527</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="25">
-        <v>40452</v>
-      </c>
-      <c r="D26" s="25">
-        <v>40512</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5">
-      <c r="A27" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" s="25">
-        <v>40452</v>
-      </c>
-      <c r="D28" s="25">
-        <v>40543</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="24"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="25.5">
-      <c r="B32" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="18">
-        <v>40452</v>
-      </c>
-      <c r="D32" s="18">
-        <v>40816</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="27">
-        <v>40483</v>
-      </c>
-      <c r="D37" s="27">
-        <v>40589</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="D36" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="27">
-        <v>40575</v>
-      </c>
-      <c r="D38" s="27">
-        <v>40664</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="26"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="27">
-        <v>40391</v>
-      </c>
-      <c r="D40" s="27">
-        <v>40786</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="25">
-        <v>40391</v>
-      </c>
-      <c r="D41" s="25">
-        <v>40786</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="25.5">
-      <c r="A42" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="25">
-        <v>40391</v>
-      </c>
-      <c r="D42" s="25">
-        <v>40786</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="38.25">
-      <c r="A43" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="25">
-        <v>40391</v>
-      </c>
-      <c r="D43" s="25">
-        <v>40786</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.5">
-      <c r="A44" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" s="25">
-        <v>40391</v>
-      </c>
-      <c r="D44" s="25">
-        <v>40786</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.5">
-      <c r="A45" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="25">
-        <v>40391</v>
-      </c>
-      <c r="D45" s="25">
-        <v>40786</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>247</v>
+      <c r="E36" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
